--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="12255"/>
+    <workbookView windowWidth="13500" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -119,7 +119,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>1015</t>
+    <t>260011</t>
   </si>
   <si>
     <t>900005</t>
@@ -137,7 +137,7 @@
     <t>也许我可以拿武器来修</t>
   </si>
   <si>
-    <t>1001,1002,1003,1004,1005,1006,1007,1008</t>
+    <t>260001,260002,260003,260004,260005,260006,260007,260008</t>
   </si>
   <si>
     <t>900007</t>
@@ -149,7 +149,7 @@
     <t>也许我可以拿些什么来充电</t>
   </si>
   <si>
-    <t>1001,1004</t>
+    <t>250001,250002</t>
   </si>
   <si>
     <t>900008</t>
@@ -164,7 +164,7 @@
     <t>E：放入篮球</t>
   </si>
   <si>
-    <t>1002</t>
+    <t>230002</t>
   </si>
 </sst>
 </file>
@@ -1128,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1137,7 +1137,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.7333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.1333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.1333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.9333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.1333333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.1333333333333" style="3" customWidth="1"/>
     <col min="7" max="7" width="25" style="3" customWidth="1"/>
@@ -1379,8 +1379,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:8">

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13500" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,15 +795,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1128,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1137,338 +1131,338 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.7333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.1333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.9333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="75.4333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.1333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.1333333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.4666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.1333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.4666666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="24" spans="2:8">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="5"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="5"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="5"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="19965" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19965" windowHeight="10980"/>
+    <workbookView windowWidth="21780" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,10 @@
     <t>其它表中的物品有一个交互功能ID字段，填写了这里的某一个后就会拥有这里的交互显示逻辑</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
+    <t>这里存放的是当满足条件时显示什么</t>
+  </si>
+  <si>
+    <t>这里存放的是不满足条件时显示什么</t>
   </si>
   <si>
     <t>当玩家接近交互为这个表的【ID】字段的物品时，如果持有这个列表中任一一个ID的物品，就会显示Name字段的内容，否则出现【描述】字段的内容</t>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1131,9 +1131,9 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.7333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.1333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="75.4333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.9333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.1333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.1333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.2166666666667" style="2" customWidth="1"/>
     <col min="7" max="7" width="25" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.4666666666667" style="2" customWidth="1"/>
   </cols>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21780" windowHeight="10410"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -59,9 +59,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>(list#sep=,),int</t>
   </si>
   <si>
@@ -95,73 +92,40 @@
     <t>900001</t>
   </si>
   <si>
-    <t>E：捡起</t>
-  </si>
-  <si>
     <t>900002</t>
   </si>
   <si>
-    <t>E：举起</t>
-  </si>
-  <si>
     <t>900003</t>
   </si>
   <si>
-    <t>E：查看</t>
-  </si>
-  <si>
     <t>900004</t>
   </si>
   <si>
-    <t>E：点燃</t>
+    <t>260011</t>
+  </si>
+  <si>
+    <t>900005</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>260011</t>
-  </si>
-  <si>
-    <t>900005</t>
-  </si>
-  <si>
-    <t>E：现在几点了？</t>
-  </si>
-  <si>
     <t>900006</t>
   </si>
   <si>
-    <t>E：修缮</t>
-  </si>
-  <si>
-    <t>也许我可以拿武器来修</t>
-  </si>
-  <si>
     <t>260001,260002,260003,260004,260005,260006,260007,260008</t>
   </si>
   <si>
     <t>900007</t>
   </si>
   <si>
-    <t>E：充电</t>
-  </si>
-  <si>
-    <t>也许我可以拿些什么来充电</t>
-  </si>
-  <si>
     <t>250001,250002</t>
   </si>
   <si>
     <t>900008</t>
   </si>
   <si>
-    <t>E:阅读</t>
-  </si>
-  <si>
     <t>900009</t>
-  </si>
-  <si>
-    <t>E：放入篮球</t>
   </si>
   <si>
     <t>230002</t>
@@ -803,8 +767,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,19 +1087,19 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.7333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.9333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.1333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.2166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.1363636363636" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.9363636363636" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.1363636363636" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.2181818181818" style="2" customWidth="1"/>
     <col min="7" max="7" width="25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.4666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.4636363636364" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1164,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="28" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1172,81 +1136,77 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="98" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="94.5" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>860001</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>865000</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -1264,13 +1224,13 @@
     <row r="6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="5">
+        <v>860002</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>865000</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1287,13 +1247,13 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
+        <v>860003</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>865000</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1310,16 +1270,16 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="5">
+        <v>860004</v>
+      </c>
+      <c r="D8" s="5">
+        <v>865000</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1333,16 +1293,16 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
+        <v>860005</v>
+      </c>
+      <c r="D9" s="5">
+        <v>865000</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1354,18 +1314,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="24" spans="2:8">
+    <row r="10" ht="26" spans="2:8">
       <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <v>860006</v>
+      </c>
+      <c r="D10" s="5">
+        <v>865001</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1374,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="5">
+        <v>860007</v>
+      </c>
+      <c r="D11" s="5">
+        <v>865002</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1397,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="5">
+        <v>860008</v>
+      </c>
+      <c r="D12" s="5">
+        <v>865003</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1420,30 +1380,30 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="5">
+        <v>860009</v>
+      </c>
+      <c r="D13" s="5">
+        <v>865000</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:2">

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="27765" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -1087,19 +1087,19 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.7363636363636" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1363636363636" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.9363636363636" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.1363636363636" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.2181818181818" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.1333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.9333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.1333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.2166666666667" style="2" customWidth="1"/>
     <col min="7" max="7" width="25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.4636363636364" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.4666666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1128,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:8">
+    <row r="2" ht="27" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1158,9 +1158,15 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="98" spans="1:8">
+    <row r="4" ht="94.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="26" spans="2:8">
+    <row r="10" ht="24" spans="2:8">
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="8625"/>
+    <workbookView windowWidth="18480" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>嘟猫猫</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>嘟猫猫:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+捡起</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -77,10 +109,10 @@
     <t>这里存放的是当满足条件时显示什么</t>
   </si>
   <si>
-    <t>这里存放的是不满足条件时显示什么</t>
-  </si>
-  <si>
-    <t>当玩家接近交互为这个表的【ID】字段的物品时，如果持有这个列表中任一一个ID的物品，就会显示Name字段的内容，否则出现【描述】字段的内容</t>
+    <t>这里存放的是不满足条件时，或没有条件要求时显示什么</t>
+  </si>
+  <si>
+    <t>当玩家接近交互为这个物品时，如果持有这个列表中任一一个ID的物品，就会显示Name字段的内容，否则出现【描述】字段的内容</t>
   </si>
   <si>
     <t>可与之交互的投掷物品ID</t>
@@ -129,6 +161,27 @@
   </si>
   <si>
     <t>230002</t>
+  </si>
+  <si>
+    <t>900010</t>
+  </si>
+  <si>
+    <t>E：打开</t>
+  </si>
+  <si>
+    <t>900011</t>
+  </si>
+  <si>
+    <t>E：关闭</t>
+  </si>
+  <si>
+    <t>900012</t>
+  </si>
+  <si>
+    <t>865004</t>
+  </si>
+  <si>
+    <t>230001</t>
   </si>
 </sst>
 </file>
@@ -141,7 +194,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +352,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1087,7 +1151,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="B3:E3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1209,10 +1273,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <v>860001</v>
-      </c>
-      <c r="D5" s="5">
-        <v>865000</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -1233,10 +1297,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
         <v>860002</v>
-      </c>
-      <c r="D6" s="5">
-        <v>865000</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1256,10 +1320,10 @@
         <v>22</v>
       </c>
       <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
         <v>860003</v>
-      </c>
-      <c r="D7" s="5">
-        <v>865000</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1302,10 +1366,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
         <v>860005</v>
-      </c>
-      <c r="D9" s="5">
-        <v>865000</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>26</v>
@@ -1397,7 +1461,7 @@
         <v>860009</v>
       </c>
       <c r="D13" s="5">
-        <v>865000</v>
+        <v>865005</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
@@ -1412,14 +1476,74 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="4"/>
+    <row r="14" spans="2:8">
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <v>860010</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5">
+        <v>860011</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5">
+        <v>860012</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="4"/>
@@ -1434,5 +1558,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB20AB5-B0EA-484D-996B-6A8106B76C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A630AC9E-D733-493F-8E36-A899DCD23155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="8490" windowWidth="20145" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="465" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -159,15 +159,9 @@
     <t>900010</t>
   </si>
   <si>
-    <t>E：打开</t>
-  </si>
-  <si>
     <t>900011</t>
   </si>
   <si>
-    <t>E：关闭</t>
-  </si>
-  <si>
     <t>900012</t>
   </si>
   <si>
@@ -175,25 +169,29 @@
   </si>
   <si>
     <t>230001</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,6 +204,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,16 +252,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,66 +528,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="43" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.1328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -587,74 +597,70 @@
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="135">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>860001</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2">
@@ -663,23 +669,21 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>860002</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2">
@@ -688,22 +692,21 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>860003</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
@@ -712,47 +715,45 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>860004</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>865000</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>860005</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -760,191 +761,170 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5">
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>860006</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>865001</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="4" t="s">
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>860007</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>865002</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>860008</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>865003</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="4" t="s">
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>860009</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>865005</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="4" t="s">
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3">
         <v>860010</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3">
+        <v>860011</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5">
-        <v>860011</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C16" s="3">
+        <v>860012</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5">
-        <v>860012</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="4"/>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A630AC9E-D733-493F-8E36-A899DCD23155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD8531-AACB-44A4-AAB9-5F2D3FB76A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="465" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="1575" windowWidth="27975" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -60,33 +60,12 @@
     <t>ID</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>DESCRIBE</t>
-  </si>
-  <si>
-    <t>requiredWeaponID</t>
-  </si>
-  <si>
-    <t>requiredFoodID</t>
-  </si>
-  <si>
-    <t>requiredThrowID</t>
-  </si>
-  <si>
-    <t>requiredToolID</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>(list#sep=,),int</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -99,12 +78,6 @@
     <t>其它表中的物品有一个交互功能ID字段，填写了这里的某一个后就会拥有这里的交互显示逻辑</t>
   </si>
   <si>
-    <t>这里存放的是当满足条件时显示什么</t>
-  </si>
-  <si>
-    <t>这里存放的是不满足条件时，或没有条件要求时显示什么</t>
-  </si>
-  <si>
     <t>当玩家接近交互为这个物品时，如果持有这个列表中任一一个ID的物品，就会显示Name字段的内容，否则出现【描述】字段的内容</t>
   </si>
   <si>
@@ -120,77 +93,91 @@
     <t>900002</t>
   </si>
   <si>
-    <t>900003</t>
-  </si>
-  <si>
-    <t>900004</t>
-  </si>
-  <si>
     <t>260011</t>
   </si>
   <si>
-    <t>900005</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>900006</t>
-  </si>
-  <si>
     <t>260001,260002,260003,260004,260005,260006,260007,260008</t>
   </si>
   <si>
-    <t>900007</t>
-  </si>
-  <si>
     <t>250001,250002</t>
   </si>
   <si>
-    <t>900008</t>
-  </si>
-  <si>
-    <t>900009</t>
-  </si>
-  <si>
     <t>230002</t>
   </si>
   <si>
-    <t>900010</t>
-  </si>
-  <si>
-    <t>900011</t>
-  </si>
-  <si>
-    <t>900012</t>
-  </si>
-  <si>
-    <t>865004</t>
-  </si>
-  <si>
     <t>230001</t>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>ShortText</t>
+  </si>
+  <si>
+    <t>TipText</t>
+  </si>
+  <si>
+    <t>悬停到鼠标旁边的简短提示</t>
+  </si>
+  <si>
+    <t>InteractItemID</t>
+  </si>
+  <si>
+    <t>被交互物品ID</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>CodeExecuteID</t>
+  </si>
+  <si>
+    <t>篮球框</t>
+  </si>
+  <si>
+    <t>交互后的长文字提示</t>
+  </si>
+  <si>
+    <t>F:交互</t>
+  </si>
+  <si>
+    <t>篮球</t>
+  </si>
+  <si>
+    <t>F:放入篮球</t>
+  </si>
+  <si>
+    <t>可以放篮球的车</t>
+  </si>
+  <si>
+    <t>交互物品ID，-1表示空手交互</t>
+  </si>
+  <si>
+    <t>ToInteractItemID</t>
+  </si>
+  <si>
+    <t>交互后额外执行的代码（使用策略模式）-1表示没有额外效果</t>
+  </si>
+  <si>
+    <t>220012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,14 +194,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -528,25 +515,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.1328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="37" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="58" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" customWidth="1"/>
+    <col min="17" max="17" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,373 +547,371 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="45">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="30">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="3">
+        <v>860001</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3">
+        <v>865005</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="3">
+        <v>860009</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="N8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="N9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="25.5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="N10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="N12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="N13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="Q13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="N14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="N15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="N16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>860001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>860002</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>860003</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
-        <v>860004</v>
-      </c>
-      <c r="D8" s="3">
-        <v>865000</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>860005</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3">
-        <v>860006</v>
-      </c>
-      <c r="D10" s="3">
-        <v>865001</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3">
-        <v>860007</v>
-      </c>
-      <c r="D11" s="3">
-        <v>865002</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3">
-        <v>860008</v>
-      </c>
-      <c r="D12" s="3">
-        <v>865003</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3">
-        <v>860009</v>
-      </c>
-      <c r="D13" s="3">
-        <v>865005</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3">
-        <v>860010</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3">
-        <v>860011</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3">
-        <v>860012</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
+      <c r="Q16" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD8531-AACB-44A4-AAB9-5F2D3FB76A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D4F97-DA6E-4C65-92ED-7F9A37B5EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1575" windowWidth="27975" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>220012</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -721,7 +724,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
@@ -790,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="25.5">
+    <row r="10" spans="1:17">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -808,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30">
+    <row r="11" spans="1:17">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D4F97-DA6E-4C65-92ED-7F9A37B5EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261A9CA7-2966-4031-98E2-983662DF9333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -533,7 +533,7 @@
     <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="37" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" style="2" customWidth="1"/>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261A9CA7-2966-4031-98E2-983662DF9333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358C56C5-A32D-4CBB-B052-0BC4A6C48F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>交互说明</t>
+  </si>
+  <si>
+    <t>放入篮球</t>
+  </si>
+  <si>
+    <t>如果篮球框里有篮球则取出篮球，否则无效果</t>
   </si>
 </sst>
 </file>
@@ -210,12 +222,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +268,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -623,40 +650,47 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="45">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="L4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30">
+    <row r="5" spans="1:17" ht="45">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -682,7 +716,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
@@ -725,6 +762,9 @@
       </c>
       <c r="K6" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358C56C5-A32D-4CBB-B052-0BC4A6C48F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC44C41-592B-4335-A0D9-BEE38CDE8F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="1590" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -175,6 +175,24 @@
   </si>
   <si>
     <t>如果篮球框里有篮球则取出篮球，否则无效果</t>
+  </si>
+  <si>
+    <t>220013</t>
+  </si>
+  <si>
+    <t>220014</t>
+  </si>
+  <si>
+    <t>开关（开）</t>
+  </si>
+  <si>
+    <t>开关（关）</t>
+  </si>
+  <si>
+    <t>900003</t>
+  </si>
+  <si>
+    <t>900004</t>
   </si>
 </sst>
 </file>
@@ -547,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -780,10 +798,31 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3">
+        <v>860001</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-1</v>
+      </c>
       <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
@@ -798,10 +837,31 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3">
+        <v>860001</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-1</v>
+      </c>
       <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N8" s="4" t="s">
         <v>13</v>
       </c>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC44C41-592B-4335-A0D9-BEE38CDE8F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86718E3A-6098-477E-B3DB-27F14E5434A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1590" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4905" yWindow="2970" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -183,16 +183,13 @@
     <t>220014</t>
   </si>
   <si>
-    <t>开关（开）</t>
-  </si>
-  <si>
-    <t>开关（关）</t>
-  </si>
-  <si>
     <t>900003</t>
   </si>
   <si>
     <t>900004</t>
+  </si>
+  <si>
+    <t>开关</t>
   </si>
 </sst>
 </file>
@@ -565,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -799,7 +796,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3">
         <v>860001</v>
@@ -815,7 +812,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -838,7 +835,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3">
         <v>860001</v>
@@ -852,9 +849,6 @@
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86718E3A-6098-477E-B3DB-27F14E5434A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31036DCF-5477-48CE-BF27-9DF7A05C689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2970" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="3255" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -78,39 +78,15 @@
     <t>其它表中的物品有一个交互功能ID字段，填写了这里的某一个后就会拥有这里的交互显示逻辑</t>
   </si>
   <si>
-    <t>当玩家接近交互为这个物品时，如果持有这个列表中任一一个ID的物品，就会显示Name字段的内容，否则出现【描述】字段的内容</t>
-  </si>
-  <si>
-    <t>可与之交互的投掷物品ID</t>
-  </si>
-  <si>
-    <t>注意，功能描述未以字段形式配在该表中</t>
-  </si>
-  <si>
     <t>900001</t>
   </si>
   <si>
     <t>900002</t>
   </si>
   <si>
-    <t>260011</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>260001,260002,260003,260004,260005,260006,260007,260008</t>
-  </si>
-  <si>
-    <t>250001,250002</t>
-  </si>
-  <si>
     <t>230002</t>
   </si>
   <si>
-    <t>230001</t>
-  </si>
-  <si>
     <t>ShortText</t>
   </si>
   <si>
@@ -150,9 +126,6 @@
     <t>可以放篮球的车</t>
   </si>
   <si>
-    <t>交互物品ID，-1表示空手交互</t>
-  </si>
-  <si>
     <t>ToInteractItemID</t>
   </si>
   <si>
@@ -180,9 +153,6 @@
     <t>220013</t>
   </si>
   <si>
-    <t>220014</t>
-  </si>
-  <si>
     <t>900003</t>
   </si>
   <si>
@@ -190,6 +160,30 @@
   </si>
   <si>
     <t>开关</t>
+  </si>
+  <si>
+    <t>900005</t>
+  </si>
+  <si>
+    <t>220004</t>
+  </si>
+  <si>
+    <t>220017</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>交互物品ID，-1表示空手交互，-2表示忽略手中物品进行通用交互</t>
+  </si>
+  <si>
+    <t>900006</t>
+  </si>
+  <si>
+    <t>220015</t>
+  </si>
+  <si>
+    <t>声控开关</t>
   </si>
 </sst>
 </file>
@@ -563,7 +557,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -575,7 +569,7 @@
     <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="37" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" style="2" customWidth="1"/>
@@ -592,19 +586,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -665,7 +659,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="45">
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="60">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -673,175 +667,145 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="45">
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>860001</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
         <v>865005</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>860009</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
         <v>-1</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
         <v>860001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3">
         <v>-1</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>860001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3">
         <v>-1</v>
@@ -850,166 +814,133 @@
       <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>860001</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-1</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="N9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3">
+        <v>860001</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="N10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="N11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="N12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="N13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="N14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="N15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="N16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
+++ b/AAA-Luban-Excel/Datas/func_InteractEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31036DCF-5477-48CE-BF27-9DF7A05C689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF578A6F-1F4F-4F44-AF26-159D79EEC567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3255" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -141,9 +141,6 @@
     <t>1001</t>
   </si>
   <si>
-    <t>交互说明</t>
-  </si>
-  <si>
     <t>放入篮球</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>900003</t>
   </si>
   <si>
-    <t>900004</t>
-  </si>
-  <si>
     <t>开关</t>
   </si>
   <si>
@@ -183,7 +177,43 @@
     <t>220015</t>
   </si>
   <si>
-    <t>声控开关</t>
+    <t>900007</t>
+  </si>
+  <si>
+    <t>900008</t>
+  </si>
+  <si>
+    <t>230001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>F:盖住开关</t>
+  </si>
+  <si>
+    <t>900009</t>
+  </si>
+  <si>
+    <t>F:取回木箱</t>
+  </si>
+  <si>
+    <t>删除玩家手中的箱子</t>
+  </si>
+  <si>
+    <t>额外交互说明</t>
+  </si>
+  <si>
+    <t>220016</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>给与玩家箱子</t>
+  </si>
+  <si>
+    <t>木箱</t>
   </si>
 </sst>
 </file>
@@ -557,7 +587,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -569,16 +599,16 @@
     <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="37" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="58" customWidth="1"/>
     <col min="16" max="16" width="33.85546875" customWidth="1"/>
     <col min="17" max="17" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +689,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="60">
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="105">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -679,14 +709,14 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -722,7 +752,7 @@
         <v>28</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="2"/>
@@ -759,7 +789,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="2"/>
@@ -768,7 +798,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
         <v>860001</v>
@@ -781,10 +811,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
@@ -812,13 +842,10 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>16</v>
@@ -830,7 +857,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3">
         <v>860001</v>
@@ -843,10 +870,10 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>16</v>
@@ -871,10 +898,10 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>16</v>
@@ -884,31 +911,72 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    <row r="11" spans="1:17" ht="30">
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3">
+        <v>860001</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-1</v>
+      </c>
       <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3">
+        <v>860001</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-1</v>
+      </c>
       <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
